--- a/biology/Médecine/Septum_intermusculaire_latéral_du_bras/Septum_intermusculaire_latéral_du_bras.xlsx
+++ b/biology/Médecine/Septum_intermusculaire_latéral_du_bras/Septum_intermusculaire_latéral_du_bras.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Septum_intermusculaire_lat%C3%A9ral_du_bras</t>
+          <t>Septum_intermusculaire_latéral_du_bras</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le septum intermusculaire latéral du bras (ou cloison intermusculaire externe du bras) est un fascia séparant les loges brachiales antérieure et postérieure du bras dans leur partie latérale.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Septum_intermusculaire_lat%C3%A9ral_du_bras</t>
+          <t>Septum_intermusculaire_latéral_du_bras</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le septum intermusculaire médial du bras s'étend de la face profonde du fascia brachial au bord latéral de l'humérus de la partie inférieure de la crête du grand tubercule de l'humérus jusqu'à l'épicondyle latéral de l'humérus le long du bord externe de l'humérus.
 </t>
